--- a/week2/carmanufacturer.xlsx
+++ b/week2/carmanufacturer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/clarkprep/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8299614b0b0b5a34/Documents/BYU-Idaho/TA/ITM 220-SQL/new_itm220/github/clarkstudentw25/week2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4D6A1CAA-C9D8-4BFC-8AD8-65199D0212FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{4D6A1CAA-C9D8-4BFC-8AD8-65199D0212FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{ADC8062F-9892-4D81-99AE-5D332E9B6F31}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="21600" windowHeight="11295" xr2:uid="{25D3198B-1459-4A1F-B427-195F26B67169}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{25D3198B-1459-4A1F-B427-195F26B67169}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -574,10 +574,19 @@
   <dimension ref="A1:N11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="5" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" customWidth="1"/>
+    <col min="10" max="10" width="17" customWidth="1"/>
+    <col min="11" max="11" width="18.42578125" customWidth="1"/>
+    <col min="13" max="13" width="17.28515625" customWidth="1"/>
+    <col min="14" max="14" width="20.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
